--- a/nr-test-bug-org/ig/all-profiles.xlsx
+++ b/nr-test-bug-org/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:06:45+00:00</t>
+    <t>2024-11-07T09:07:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/all-profiles.xlsx
+++ b/nr-test-bug-org/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:07:03+00:00</t>
+    <t>2024-11-07T09:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/all-profiles.xlsx
+++ b/nr-test-bug-org/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:34:03+00:00</t>
+    <t>2024-11-07T09:37:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/all-profiles.xlsx
+++ b/nr-test-bug-org/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:37:15+00:00</t>
+    <t>2024-11-13T08:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/all-profiles.xlsx
+++ b/nr-test-bug-org/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5681" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6071" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:22:11+00:00</t>
+    <t>2024-11-13T08:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1720,6 +1720,75 @@
   </si>
   <si>
     <t>Les BALs MSS de type ORG ou APP rattachées à une personne morale responsable de l’accès et de l’usage de la BAL (boiteLettreMSS).</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.url</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.url</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.system</t>
+  </si>
+  <si>
+    <t>Organization.telecom.system</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.value</t>
+  </si>
+  <si>
+    <t>Organization.telecom.value</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.use</t>
+  </si>
+  <si>
+    <t>Organization.telecom.use</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.period</t>
+  </si>
+  <si>
+    <t>Organization.telecom.period</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -2411,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK168"/>
+  <dimension ref="A1:AK180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18366,7 +18435,7 @@
         <v>546</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -18377,7 +18446,7 @@
         <v>76</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>75</v>
@@ -18389,20 +18458,16 @@
         <v>75</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>547</v>
+        <v>85</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>548</v>
+        <v>86</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="P152" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>75</v>
       </c>
@@ -18450,19 +18515,19 @@
         <v>75</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>546</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>552</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153">
@@ -18470,10 +18535,10 @@
         <v>160</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -18481,10 +18546,10 @@
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>75</v>
@@ -18493,21 +18558,19 @@
         <v>75</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>554</v>
+        <v>91</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>555</v>
+        <v>109</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>556</v>
+        <v>110</v>
       </c>
       <c r="O153" s="2"/>
-      <c r="P153" t="s" s="2">
-        <v>557</v>
-      </c>
+      <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
         <v>75</v>
       </c>
@@ -18543,31 +18606,31 @@
         <v>75</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AE153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>553</v>
+        <v>98</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154">
@@ -18575,18 +18638,20 @@
         <v>160</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="D154" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="D154" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="E154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>84</v>
@@ -18601,13 +18666,13 @@
         <v>75</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -18658,19 +18723,19 @@
         <v>75</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155">
@@ -18678,21 +18743,21 @@
         <v>160</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>75</v>
@@ -18704,17 +18769,15 @@
         <v>75</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="O155" s="2"/>
       <c r="P155" s="2"/>
       <c r="Q155" t="s" s="2">
         <v>75</v>
@@ -18751,31 +18814,31 @@
         <v>75</v>
       </c>
       <c r="AC155" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156">
@@ -18783,10 +18846,10 @@
         <v>160</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -18797,7 +18860,7 @@
         <v>76</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>75</v>
@@ -18806,20 +18869,18 @@
         <v>75</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>561</v>
+        <v>109</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O156" s="2"/>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>75</v>
@@ -18856,31 +18917,31 @@
         <v>75</v>
       </c>
       <c r="AC156" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AE156" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>564</v>
+        <v>98</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>565</v>
+        <v>75</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157">
@@ -18888,10 +18949,10 @@
         <v>160</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -18899,7 +18960,7 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>84</v>
@@ -18911,19 +18972,19 @@
         <v>75</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>113</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>567</v>
+        <v>114</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>568</v>
+        <v>115</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>569</v>
+        <v>116</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
@@ -18931,7 +18992,7 @@
       </c>
       <c r="R157" s="2"/>
       <c r="S157" t="s" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="T157" t="s" s="2">
         <v>75</v>
@@ -18949,11 +19010,13 @@
         <v>75</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Z157" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AA157" t="s" s="2">
-        <v>472</v>
+        <v>75</v>
       </c>
       <c r="AB157" t="s" s="2">
         <v>75</v>
@@ -18971,10 +19034,10 @@
         <v>75</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>570</v>
+        <v>118</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>84</v>
@@ -18983,7 +19046,7 @@
         <v>75</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158">
@@ -18991,10 +19054,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19014,20 +19077,18 @@
         <v>75</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>272</v>
+        <v>121</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>572</v>
+        <v>122</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="O158" s="2"/>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>75</v>
@@ -19037,7 +19098,7 @@
         <v>75</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>75</v>
@@ -19052,13 +19113,11 @@
         <v>75</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="Z158" s="2"/>
       <c r="AA158" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="AB158" t="s" s="2">
         <v>75</v>
@@ -19076,7 +19135,7 @@
         <v>75</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>575</v>
+        <v>127</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>76</v>
@@ -19096,10 +19155,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -19107,7 +19166,7 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>84</v>
@@ -19122,17 +19181,15 @@
         <v>130</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>577</v>
+        <v>132</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O159" s="2"/>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
         <v>75</v>
@@ -19142,7 +19199,7 @@
         <v>75</v>
       </c>
       <c r="T159" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="U159" t="s" s="2">
         <v>75</v>
@@ -19157,13 +19214,13 @@
         <v>75</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>75</v>
@@ -19181,7 +19238,7 @@
         <v>75</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>580</v>
+        <v>129</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>76</v>
@@ -19190,7 +19247,7 @@
         <v>84</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>128</v>
@@ -19201,10 +19258,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19212,34 +19269,34 @@
       </c>
       <c r="F160" s="2"/>
       <c r="G160" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="J160" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>582</v>
+        <v>85</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>583</v>
+        <v>140</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>584</v>
+        <v>141</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>585</v>
+        <v>142</v>
       </c>
       <c r="P160" t="s" s="2">
-        <v>586</v>
+        <v>143</v>
       </c>
       <c r="Q160" t="s" s="2">
         <v>75</v>
@@ -19288,13 +19345,13 @@
         <v>75</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>581</v>
+        <v>139</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>75</v>
@@ -19308,10 +19365,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -19328,22 +19385,26 @@
         <v>75</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P161" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="Q161" t="s" s="2">
         <v>75</v>
       </c>
@@ -19367,13 +19428,13 @@
         <v>75</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="AA161" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AB161" t="s" s="2">
         <v>75</v>
@@ -19391,7 +19452,7 @@
         <v>75</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>76</v>
@@ -19403,7 +19464,7 @@
         <v>75</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162">
@@ -19411,21 +19472,21 @@
         <v>160</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>75</v>
@@ -19434,19 +19495,19 @@
         <v>75</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
@@ -19496,19 +19557,19 @@
         <v>75</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163">
@@ -19516,46 +19577,42 @@
         <v>160</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>590</v>
+        <v>75</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>591</v>
+        <v>158</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="P163" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
         <v>75</v>
       </c>
@@ -19603,19 +19660,19 @@
         <v>75</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>593</v>
+        <v>156</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164">
@@ -19623,10 +19680,10 @@
         <v>160</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -19637,7 +19694,7 @@
         <v>76</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>75</v>
@@ -19649,17 +19706,19 @@
         <v>75</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>289</v>
+        <v>570</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O164" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P164" t="s" s="2">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>75</v>
@@ -19684,13 +19743,13 @@
         <v>75</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>598</v>
+        <v>75</v>
       </c>
       <c r="AA164" t="s" s="2">
-        <v>599</v>
+        <v>75</v>
       </c>
       <c r="AB164" t="s" s="2">
         <v>75</v>
@@ -19708,19 +19767,19 @@
         <v>75</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>128</v>
+        <v>575</v>
       </c>
     </row>
     <row r="165">
@@ -19728,10 +19787,10 @@
         <v>160</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -19751,20 +19810,20 @@
         <v>75</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>75</v>
@@ -19813,7 +19872,7 @@
         <v>75</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>76</v>
@@ -19833,10 +19892,10 @@
         <v>160</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -19847,7 +19906,7 @@
         <v>76</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>75</v>
@@ -19859,18 +19918,16 @@
         <v>75</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>537</v>
+        <v>85</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O166" s="2"/>
-      <c r="P166" t="s" s="2">
-        <v>606</v>
-      </c>
+      <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>75</v>
       </c>
@@ -19918,19 +19975,19 @@
         <v>75</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>605</v>
+        <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167">
@@ -19938,21 +19995,21 @@
         <v>160</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I167" t="s" s="2">
         <v>75</v>
@@ -19964,20 +20021,18 @@
         <v>75</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>547</v>
+        <v>91</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>548</v>
+        <v>92</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>549</v>
+        <v>93</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="P167" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
         <v>75</v>
       </c>
@@ -20013,31 +20068,31 @@
         <v>75</v>
       </c>
       <c r="AC167" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AE167" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>607</v>
+        <v>98</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168">
@@ -20045,10 +20100,10 @@
         <v>160</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -20059,7 +20114,7 @@
         <v>76</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>75</v>
@@ -20068,21 +20123,21 @@
         <v>75</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>610</v>
+        <v>85</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" t="s" s="2">
-        <v>613</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="P168" s="2"/>
       <c r="Q168" t="s" s="2">
         <v>75</v>
       </c>
@@ -20130,18 +20185,1280 @@
         <v>75</v>
       </c>
       <c r="AG168" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="P169" s="2"/>
+      <c r="Q169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R169" s="2"/>
+      <c r="S169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Z169" s="2"/>
+      <c r="AA169" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R170" s="2"/>
+      <c r="S170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R171" s="2"/>
+      <c r="S171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="P172" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AH168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI168" t="s" s="2">
+      <c r="Q172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R172" s="2"/>
+      <c r="S172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI172" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK168" t="s" s="2">
+      <c r="AJ172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R173" s="2"/>
+      <c r="S173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R174" s="2"/>
+      <c r="S174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="P175" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Q175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R175" s="2"/>
+      <c r="S175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="O176" s="2"/>
+      <c r="P176" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="Q176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R176" s="2"/>
+      <c r="S176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="O177" s="2"/>
+      <c r="P177" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="Q177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R177" s="2"/>
+      <c r="S177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="O178" s="2"/>
+      <c r="P178" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="Q178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R178" s="2"/>
+      <c r="S178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="P179" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Q179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R179" s="2"/>
+      <c r="S179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O180" s="2"/>
+      <c r="P180" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="Q180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R180" s="2"/>
+      <c r="S180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK180" t="s" s="2">
         <v>128</v>
       </c>
     </row>
